--- a/notebooks/output/HH_inc.xlsx
+++ b/notebooks/output/HH_inc.xlsx
@@ -16,11 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>i_75100_21E</t>
+  </si>
+  <si>
+    <t>i_75100_21M</t>
+  </si>
+  <si>
+    <t>i_75100_21C</t>
+  </si>
+  <si>
     <t>i_o100_21E</t>
   </si>
   <si>
@@ -30,15 +39,6 @@
     <t>i_o100_21C</t>
   </si>
   <si>
-    <t>i_75100_21E</t>
-  </si>
-  <si>
-    <t>i_75100_21M</t>
-  </si>
-  <si>
-    <t>i_75100_21C</t>
-  </si>
-  <si>
     <t>i_3050_21E</t>
   </si>
   <si>
@@ -57,6 +57,15 @@
     <t>i_5075_21C</t>
   </si>
   <si>
+    <t>i_u30_21E</t>
+  </si>
+  <si>
+    <t>i_u30_21M</t>
+  </si>
+  <si>
+    <t>i_u30_21C</t>
+  </si>
+  <si>
     <t>i_tot_21E</t>
   </si>
   <si>
@@ -64,24 +73,6 @@
   </si>
   <si>
     <t>i_tot_21C</t>
-  </si>
-  <si>
-    <t>i_u30_21E</t>
-  </si>
-  <si>
-    <t>i_u30_21M</t>
-  </si>
-  <si>
-    <t>i_u30_21C</t>
-  </si>
-  <si>
-    <t>B19001_00221E</t>
-  </si>
-  <si>
-    <t>B19001_00221M</t>
-  </si>
-  <si>
-    <t>B19001_00221C</t>
   </si>
   <si>
     <t>Alhambra</t>
@@ -493,13 +484,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,37 +548,28 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
       <c r="B2">
+        <v>5183</v>
+      </c>
+      <c r="C2">
+        <v>606.375296330581</v>
+      </c>
+      <c r="D2">
+        <v>7.112043245548265</v>
+      </c>
+      <c r="E2">
         <v>10473</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>773.2063114072466</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>4.488057212436824</v>
-      </c>
-      <c r="E2">
-        <v>5183</v>
-      </c>
-      <c r="F2">
-        <v>606.375296330581</v>
-      </c>
-      <c r="G2">
-        <v>7.112043245548265</v>
       </c>
       <c r="H2">
         <v>10110</v>
@@ -608,54 +590,45 @@
         <v>5.903044245163243</v>
       </c>
       <c r="N2">
+        <v>13818</v>
+      </c>
+      <c r="O2">
+        <v>940.5147526753634</v>
+      </c>
+      <c r="P2">
+        <v>4.137657338168062</v>
+      </c>
+      <c r="Q2">
         <v>48535</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>1548.695903010013</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>1.939747555359903</v>
       </c>
-      <c r="Q2">
-        <v>10434</v>
-      </c>
-      <c r="R2">
-        <v>826.8294866536872</v>
-      </c>
-      <c r="S2">
-        <v>4.817250400425119</v>
-      </c>
-      <c r="T2">
-        <v>3384</v>
-      </c>
-      <c r="U2">
-        <v>448.2421220724353</v>
-      </c>
-      <c r="V2">
-        <v>8.052234403134999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3">
+        <v>7728</v>
+      </c>
+      <c r="C3">
+        <v>723.3021498654625</v>
+      </c>
+      <c r="D3">
+        <v>5.689665573774775</v>
+      </c>
+      <c r="E3">
         <v>15347</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>1071.279141960675</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>4.243392982007809</v>
-      </c>
-      <c r="E3">
-        <v>7728</v>
-      </c>
-      <c r="F3">
-        <v>723.3021498654625</v>
-      </c>
-      <c r="G3">
-        <v>5.689665573774775</v>
       </c>
       <c r="H3">
         <v>14237</v>
@@ -676,54 +649,45 @@
         <v>5.387497279350556</v>
       </c>
       <c r="N3">
+        <v>16248</v>
+      </c>
+      <c r="O3">
+        <v>1184.021114676592</v>
+      </c>
+      <c r="P3">
+        <v>4.429897061641039</v>
+      </c>
+      <c r="Q3">
         <v>66863</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>1941.481650698765</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>1.765149644053974</v>
       </c>
-      <c r="Q3">
-        <v>11976</v>
-      </c>
-      <c r="R3">
-        <v>1024.214333037768</v>
-      </c>
-      <c r="S3">
-        <v>5.198920297727004</v>
-      </c>
-      <c r="T3">
-        <v>4272</v>
-      </c>
-      <c r="U3">
-        <v>594.0462944922728</v>
-      </c>
-      <c r="V3">
-        <v>8.453238938963162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4">
+        <v>9540</v>
+      </c>
+      <c r="C4">
+        <v>975.32609931243</v>
+      </c>
+      <c r="D4">
+        <v>6.214920375653496</v>
+      </c>
+      <c r="E4">
         <v>12378</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>1077.165261229678</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>5.290125294508091</v>
-      </c>
-      <c r="E4">
-        <v>9540</v>
-      </c>
-      <c r="F4">
-        <v>975.32609931243</v>
-      </c>
-      <c r="G4">
-        <v>6.214920375653496</v>
       </c>
       <c r="H4">
         <v>16122</v>
@@ -744,54 +708,45 @@
         <v>4.476427396911376</v>
       </c>
       <c r="N4">
+        <v>15054</v>
+      </c>
+      <c r="O4">
+        <v>1147.874993193945</v>
+      </c>
+      <c r="P4">
+        <v>4.635288617285554</v>
+      </c>
+      <c r="Q4">
         <v>67881</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>2069.703360387667</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>1.853505892049569</v>
       </c>
-      <c r="Q4">
-        <v>11818</v>
-      </c>
-      <c r="R4">
-        <v>1038.223482685688</v>
-      </c>
-      <c r="S4">
-        <v>5.340488198084774</v>
-      </c>
-      <c r="T4">
-        <v>3236</v>
-      </c>
-      <c r="U4">
-        <v>489.6008578423857</v>
-      </c>
-      <c r="V4">
-        <v>9.197456761929541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5">
+        <v>4983</v>
+      </c>
+      <c r="C5">
+        <v>533.2222801046482</v>
+      </c>
+      <c r="D5">
+        <v>6.50506286852073</v>
+      </c>
+      <c r="E5">
         <v>10358</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>958.0720223448757</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>5.622848071530841</v>
-      </c>
-      <c r="E5">
-        <v>4983</v>
-      </c>
-      <c r="F5">
-        <v>533.2222801046482</v>
-      </c>
-      <c r="G5">
-        <v>6.50506286852073</v>
       </c>
       <c r="H5">
         <v>7497</v>
@@ -812,54 +767,45 @@
         <v>6.462825934799865</v>
       </c>
       <c r="N5">
+        <v>8912</v>
+      </c>
+      <c r="O5">
+        <v>877.7408501374423</v>
+      </c>
+      <c r="P5">
+        <v>5.987220196514125</v>
+      </c>
+      <c r="Q5">
         <v>39548</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>1473.240306263713</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>2.264556519465882</v>
       </c>
-      <c r="Q5">
-        <v>6732</v>
-      </c>
-      <c r="R5">
-        <v>792.4891166445127</v>
-      </c>
-      <c r="S5">
-        <v>7.15621363504988</v>
-      </c>
-      <c r="T5">
-        <v>2180</v>
-      </c>
-      <c r="U5">
-        <v>377.345995076137</v>
-      </c>
-      <c r="V5">
-        <v>10.52246158992044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6">
+        <v>3566</v>
+      </c>
+      <c r="C6">
+        <v>442.9401765475785</v>
+      </c>
+      <c r="D6">
+        <v>7.55088460498389</v>
+      </c>
+      <c r="E6">
         <v>6879</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>723.9046898591001</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>6.397203681519589</v>
-      </c>
-      <c r="E6">
-        <v>3566</v>
-      </c>
-      <c r="F6">
-        <v>442.9401765475785</v>
-      </c>
-      <c r="G6">
-        <v>7.55088460498389</v>
       </c>
       <c r="H6">
         <v>2438</v>
@@ -880,54 +826,45 @@
         <v>8.586729472488464</v>
       </c>
       <c r="N6">
+        <v>1933</v>
+      </c>
+      <c r="O6">
+        <v>337.6210893886814</v>
+      </c>
+      <c r="P6">
+        <v>10.61773325519434</v>
+      </c>
+      <c r="Q6">
         <v>18574</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>921.2963692536729</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>3.015282562360998</v>
       </c>
-      <c r="Q6">
-        <v>1345</v>
-      </c>
-      <c r="R6">
-        <v>286.4437117480501</v>
-      </c>
-      <c r="S6">
-        <v>12.94646215288189</v>
-      </c>
-      <c r="T6">
-        <v>588</v>
-      </c>
-      <c r="U6">
-        <v>178.712058910416</v>
-      </c>
-      <c r="V6">
-        <v>18.47611385877799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7">
+        <v>8042</v>
+      </c>
+      <c r="C7">
+        <v>798.3664572112233</v>
+      </c>
+      <c r="D7">
+        <v>6.034931028598515</v>
+      </c>
+      <c r="E7">
         <v>21250</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>1187.291876498782</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>3.396508139456556</v>
-      </c>
-      <c r="E7">
-        <v>8042</v>
-      </c>
-      <c r="F7">
-        <v>798.3664572112233</v>
-      </c>
-      <c r="G7">
-        <v>6.034931028598515</v>
       </c>
       <c r="H7">
         <v>12115</v>
@@ -948,54 +885,45 @@
         <v>4.967097947584306</v>
       </c>
       <c r="N7">
+        <v>13006</v>
+      </c>
+      <c r="O7">
+        <v>981.1788827731669</v>
+      </c>
+      <c r="P7">
+        <v>4.586047415914035</v>
+      </c>
+      <c r="Q7">
         <v>65839</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>1797.964404541981</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>1.660091252851243</v>
       </c>
-      <c r="Q7">
-        <v>9845</v>
-      </c>
-      <c r="R7">
-        <v>869.3905911614181</v>
-      </c>
-      <c r="S7">
-        <v>5.368257172566379</v>
-      </c>
-      <c r="T7">
-        <v>3161</v>
-      </c>
-      <c r="U7">
-        <v>454.8318370562905</v>
-      </c>
-      <c r="V7">
-        <v>8.747026825920591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8">
+        <v>3967</v>
+      </c>
+      <c r="C8">
+        <v>560.0535688664077</v>
+      </c>
+      <c r="D8">
+        <v>8.582256026602566</v>
+      </c>
+      <c r="E8">
         <v>5957</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>655.0999923675774</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>6.685195189308356</v>
-      </c>
-      <c r="E8">
-        <v>3967</v>
-      </c>
-      <c r="F8">
-        <v>560.0535688664077</v>
-      </c>
-      <c r="G8">
-        <v>8.582256026602566</v>
       </c>
       <c r="H8">
         <v>5136</v>
@@ -1016,54 +944,45 @@
         <v>7.056235112010258</v>
       </c>
       <c r="N8">
+        <v>6501</v>
+      </c>
+      <c r="O8">
+        <v>723.8259459289919</v>
+      </c>
+      <c r="P8">
+        <v>6.768432127383647</v>
+      </c>
+      <c r="Q8">
         <v>26677</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>1180.5231890988</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>2.690119863732438</v>
       </c>
-      <c r="Q8">
-        <v>4778</v>
-      </c>
-      <c r="R8">
-        <v>638.5225133070877</v>
-      </c>
-      <c r="S8">
-        <v>8.123892477134786</v>
-      </c>
-      <c r="T8">
-        <v>1723</v>
-      </c>
-      <c r="U8">
-        <v>340.9002786739841</v>
-      </c>
-      <c r="V8">
-        <v>12.02752245849499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9">
+        <v>2097</v>
+      </c>
+      <c r="C9">
+        <v>342.2046171517854</v>
+      </c>
+      <c r="D9">
+        <v>9.920225221202829</v>
+      </c>
+      <c r="E9">
         <v>3140</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>400.3748243833521</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>7.751240477481502</v>
-      </c>
-      <c r="E9">
-        <v>2097</v>
-      </c>
-      <c r="F9">
-        <v>342.2046171517854</v>
-      </c>
-      <c r="G9">
-        <v>9.920225221202829</v>
       </c>
       <c r="H9">
         <v>4011</v>
@@ -1084,54 +1003,45 @@
         <v>7.402602433269792</v>
       </c>
       <c r="N9">
+        <v>9050</v>
+      </c>
+      <c r="O9">
+        <v>697.7091084398999</v>
+      </c>
+      <c r="P9">
+        <v>4.686621830357519</v>
+      </c>
+      <c r="Q9">
         <v>21802</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>845.2798353208244</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>2.356884341836474</v>
       </c>
-      <c r="Q9">
-        <v>6138</v>
-      </c>
-      <c r="R9">
-        <v>565.2043878102859</v>
-      </c>
-      <c r="S9">
-        <v>5.597740200418598</v>
-      </c>
-      <c r="T9">
-        <v>2912</v>
-      </c>
-      <c r="U9">
-        <v>409.0745653300875</v>
-      </c>
-      <c r="V9">
-        <v>8.539750937950656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10">
+        <v>10989</v>
+      </c>
+      <c r="C10">
+        <v>895.676839044083</v>
+      </c>
+      <c r="D10">
+        <v>4.954813000588779</v>
+      </c>
+      <c r="E10">
         <v>23729</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>1251.55942727463</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>3.206314634240995</v>
-      </c>
-      <c r="E10">
-        <v>10989</v>
-      </c>
-      <c r="F10">
-        <v>895.676839044083</v>
-      </c>
-      <c r="G10">
-        <v>4.954813000588779</v>
       </c>
       <c r="H10">
         <v>11805</v>
@@ -1152,54 +1062,45 @@
         <v>4.370494824715099</v>
       </c>
       <c r="N10">
+        <v>11658</v>
+      </c>
+      <c r="O10">
+        <v>1063.970394324955</v>
+      </c>
+      <c r="P10">
+        <v>5.548040086356577</v>
+      </c>
+      <c r="Q10">
         <v>71029</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>1901.591964644361</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>1.627480264723725</v>
       </c>
-      <c r="Q10">
-        <v>8987</v>
-      </c>
-      <c r="R10">
-        <v>978.0541907276918</v>
-      </c>
-      <c r="S10">
-        <v>6.615798576516582</v>
-      </c>
-      <c r="T10">
-        <v>2671</v>
-      </c>
-      <c r="U10">
-        <v>418.8591648752597</v>
-      </c>
-      <c r="V10">
-        <v>9.532970128903594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11">
+        <v>9206</v>
+      </c>
+      <c r="C11">
+        <v>719.1529739909305</v>
+      </c>
+      <c r="D11">
+        <v>4.748805780760997</v>
+      </c>
+      <c r="E11">
         <v>27655</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>1293.62629843398</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>2.843605010353865</v>
-      </c>
-      <c r="E11">
-        <v>9206</v>
-      </c>
-      <c r="F11">
-        <v>719.1529739909305</v>
-      </c>
-      <c r="G11">
-        <v>4.748805780760997</v>
       </c>
       <c r="H11">
         <v>11064</v>
@@ -1220,54 +1121,45 @@
         <v>4.789045242133947</v>
       </c>
       <c r="N11">
+        <v>11411</v>
+      </c>
+      <c r="O11">
+        <v>954.9340291349973</v>
+      </c>
+      <c r="P11">
+        <v>5.087257984337074</v>
+      </c>
+      <c r="Q11">
         <v>70807</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>1731.503970541217</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>1.486556414378532</v>
       </c>
-      <c r="Q11">
-        <v>8778</v>
-      </c>
-      <c r="R11">
-        <v>820.4736436961275</v>
-      </c>
-      <c r="S11">
-        <v>5.682025204598451</v>
-      </c>
-      <c r="T11">
-        <v>2633</v>
-      </c>
-      <c r="U11">
-        <v>488.5918542096256</v>
-      </c>
-      <c r="V11">
-        <v>11.28052885482312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12">
+        <v>4460</v>
+      </c>
+      <c r="C12">
+        <v>595.7667328745371</v>
+      </c>
+      <c r="D12">
+        <v>8.120363826714151</v>
+      </c>
+      <c r="E12">
         <v>6128</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>791.9741157386395</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>7.85644959941352</v>
-      </c>
-      <c r="E12">
-        <v>4460</v>
-      </c>
-      <c r="F12">
-        <v>595.7667328745371</v>
-      </c>
-      <c r="G12">
-        <v>8.120363826714151</v>
       </c>
       <c r="H12">
         <v>4860</v>
@@ -1288,54 +1180,45 @@
         <v>6.763555997654031</v>
       </c>
       <c r="N12">
+        <v>4461</v>
+      </c>
+      <c r="O12">
+        <v>536.2685894213831</v>
+      </c>
+      <c r="P12">
+        <v>7.307759302967947</v>
+      </c>
+      <c r="Q12">
         <v>24874</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>1100.737934296806</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>2.690124633738983</v>
       </c>
-      <c r="Q12">
-        <v>3262</v>
-      </c>
-      <c r="R12">
-        <v>466.2241949963558</v>
-      </c>
-      <c r="S12">
-        <v>8.68850286706378</v>
-      </c>
-      <c r="T12">
-        <v>1199</v>
-      </c>
-      <c r="U12">
-        <v>264.9886790034623</v>
-      </c>
-      <c r="V12">
-        <v>13.43514118926169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13">
+        <v>4896</v>
+      </c>
+      <c r="C13">
+        <v>610.8092992088448</v>
+      </c>
+      <c r="D13">
+        <v>7.58400007957423</v>
+      </c>
+      <c r="E13">
         <v>15056</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>866.4571541628587</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>3.498417071354517</v>
-      </c>
-      <c r="E13">
-        <v>4896</v>
-      </c>
-      <c r="F13">
-        <v>610.8092992088448</v>
-      </c>
-      <c r="G13">
-        <v>7.58400007957423</v>
       </c>
       <c r="H13">
         <v>3792</v>
@@ -1356,54 +1239,45 @@
         <v>7.258031510600828</v>
       </c>
       <c r="N13">
+        <v>3431</v>
+      </c>
+      <c r="O13">
+        <v>505.8329763864749</v>
+      </c>
+      <c r="P13">
+        <v>8.96232148303595</v>
+      </c>
+      <c r="Q13">
         <v>32116</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>1111.789548430817</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>2.104433640119189</v>
       </c>
-      <c r="Q13">
-        <v>2277</v>
-      </c>
-      <c r="R13">
-        <v>419.081137728722</v>
-      </c>
-      <c r="S13">
-        <v>11.18843083214121</v>
-      </c>
-      <c r="T13">
-        <v>1154</v>
-      </c>
-      <c r="U13">
-        <v>283.2631285571774</v>
-      </c>
-      <c r="V13">
-        <v>14.9217011034529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14">
+        <v>3386</v>
+      </c>
+      <c r="C14">
+        <v>441.9592741418602</v>
+      </c>
+      <c r="D14">
+        <v>7.93467961482486</v>
+      </c>
+      <c r="E14">
         <v>14492</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <v>912.0855223058855</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>3.825968010464575</v>
-      </c>
-      <c r="E14">
-        <v>3386</v>
-      </c>
-      <c r="F14">
-        <v>441.9592741418602</v>
-      </c>
-      <c r="G14">
-        <v>7.93467961482486</v>
       </c>
       <c r="H14">
         <v>1999</v>
@@ -1424,54 +1298,45 @@
         <v>9.621692845351475</v>
       </c>
       <c r="N14">
+        <v>2227</v>
+      </c>
+      <c r="O14">
+        <v>404.6245172996812</v>
+      </c>
+      <c r="P14">
+        <v>11.04500902299306</v>
+      </c>
+      <c r="Q14">
         <v>24746</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>929.8392334161857</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>2.284214877664514</v>
       </c>
-      <c r="Q14">
-        <v>1718</v>
-      </c>
-      <c r="R14">
-        <v>353.7244690433502</v>
-      </c>
-      <c r="S14">
-        <v>12.51630223322341</v>
-      </c>
-      <c r="T14">
-        <v>509</v>
-      </c>
-      <c r="U14">
-        <v>196.468827043885</v>
-      </c>
-      <c r="V14">
-        <v>23.46442778245502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15">
+        <v>1267</v>
+      </c>
+      <c r="C15">
+        <v>338.311986190262</v>
+      </c>
+      <c r="D15">
+        <v>16.2321059099115</v>
+      </c>
+      <c r="E15">
         <v>4951</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <v>651.1436093520384</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>7.994990534619678</v>
-      </c>
-      <c r="E15">
-        <v>1267</v>
-      </c>
-      <c r="F15">
-        <v>338.311986190262</v>
-      </c>
-      <c r="G15">
-        <v>16.2321059099115</v>
       </c>
       <c r="H15">
         <v>726</v>
@@ -1492,54 +1357,45 @@
         <v>14.05000702177013</v>
       </c>
       <c r="N15">
+        <v>427</v>
+      </c>
+      <c r="O15">
+        <v>181.9532907094565</v>
+      </c>
+      <c r="P15">
+        <v>25.90395858708264</v>
+      </c>
+      <c r="Q15">
         <v>8738</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>728.8504647731248</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>5.070613313703864</v>
       </c>
-      <c r="Q15">
-        <v>311</v>
-      </c>
-      <c r="R15">
-        <v>156.1633759880978</v>
-      </c>
-      <c r="S15">
-        <v>30.52480497035698</v>
-      </c>
-      <c r="T15">
-        <v>116</v>
-      </c>
-      <c r="U15">
-        <v>93.38094023943002</v>
-      </c>
-      <c r="V15">
-        <v>48.93666294907767</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16">
+        <v>222</v>
+      </c>
+      <c r="C16">
+        <v>127.9140336319671</v>
+      </c>
+      <c r="D16">
+        <v>35.02670764039734</v>
+      </c>
+      <c r="E16">
         <v>575</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>183.10379570069</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>19.35813883448553</v>
-      </c>
-      <c r="E16">
-        <v>222</v>
-      </c>
-      <c r="F16">
-        <v>127.9140336319671</v>
-      </c>
-      <c r="G16">
-        <v>35.02670764039734</v>
       </c>
       <c r="H16">
         <v>70</v>
@@ -1560,31 +1416,22 @@
         <v>45.48596462341144</v>
       </c>
       <c r="N16">
+        <v>170</v>
+      </c>
+      <c r="O16">
+        <v>147.8343667757941</v>
+      </c>
+      <c r="P16">
+        <v>52.86406821948653</v>
+      </c>
+      <c r="Q16">
         <v>1149</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>191.0340283823801</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>10.10705904605194</v>
-      </c>
-      <c r="Q16">
-        <v>76</v>
-      </c>
-      <c r="R16">
-        <v>109.8180313063388</v>
-      </c>
-      <c r="S16">
-        <v>87.84037058577728</v>
-      </c>
-      <c r="T16">
-        <v>94</v>
-      </c>
-      <c r="U16">
-        <v>98.96969233053117</v>
-      </c>
-      <c r="V16">
-        <v>64.00419862286178</v>
       </c>
     </row>
   </sheetData>
@@ -1594,15 +1441,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1658,37 +1505,28 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2">
+        <v>78450</v>
+      </c>
+      <c r="C2">
+        <v>2480</v>
+      </c>
+      <c r="D2">
+        <v>1.921732038488883</v>
+      </c>
+      <c r="E2">
         <v>173831</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>3470.972918361651</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>1.213830635579812</v>
-      </c>
-      <c r="E2">
-        <v>78450</v>
-      </c>
-      <c r="F2">
-        <v>2480</v>
-      </c>
-      <c r="G2">
-        <v>1.921732038488883</v>
       </c>
       <c r="H2">
         <v>105129</v>
@@ -1709,31 +1547,22 @@
         <v>1.605318760269399</v>
       </c>
       <c r="N2">
+        <v>117192</v>
+      </c>
+      <c r="O2">
+        <v>3115.80166249394</v>
+      </c>
+      <c r="P2">
+        <v>1.616240318536811</v>
+      </c>
+      <c r="Q2">
         <v>579876</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>2997</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>0.3141851876056679</v>
-      </c>
-      <c r="Q2">
-        <v>87695</v>
-      </c>
-      <c r="R2">
-        <v>2768.270218024245</v>
-      </c>
-      <c r="S2">
-        <v>1.918968057828395</v>
-      </c>
-      <c r="T2">
-        <v>29497</v>
-      </c>
-      <c r="U2">
-        <v>1430</v>
-      </c>
-      <c r="V2">
-        <v>2.947082455348352</v>
       </c>
     </row>
   </sheetData>
@@ -1743,15 +1572,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1807,37 +1636,28 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2">
+        <v>15895589</v>
+      </c>
+      <c r="C2">
+        <v>44008</v>
+      </c>
+      <c r="D2">
+        <v>0.1683019332383729</v>
+      </c>
+      <c r="E2">
         <v>41662649</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>97392.51920450565</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>0.1421061316761778</v>
-      </c>
-      <c r="E2">
-        <v>15895589</v>
-      </c>
-      <c r="F2">
-        <v>44008</v>
-      </c>
-      <c r="G2">
-        <v>0.1683019332383729</v>
       </c>
       <c r="H2">
         <v>19259497</v>
@@ -1858,31 +1678,22 @@
         <v>0.1153363546780934</v>
       </c>
       <c r="N2">
+        <v>26347926</v>
+      </c>
+      <c r="O2">
+        <v>45154.22393309401</v>
+      </c>
+      <c r="P2">
+        <v>0.1041804058927484</v>
+      </c>
+      <c r="Q2">
         <v>124010992</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>196755</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>0.0964494363012291</v>
-      </c>
-      <c r="Q2">
-        <v>19512898</v>
-      </c>
-      <c r="R2">
-        <v>37337.64173056461</v>
-      </c>
-      <c r="S2">
-        <v>0.116321289372064</v>
-      </c>
-      <c r="T2">
-        <v>6835028</v>
-      </c>
-      <c r="U2">
-        <v>25393</v>
-      </c>
-      <c r="V2">
-        <v>0.2258436126982031</v>
       </c>
     </row>
   </sheetData>
